--- a/Monetary Transactions_conv.xlsx
+++ b/Monetary Transactions_conv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_may\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_may_24-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB68A049-E53F-43F1-BF61-8DEDFD365E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE3B7D-00BE-451C-A14B-9EA708587F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="G103" workbookViewId="0">
+      <selection activeCell="R120" sqref="R120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
         <v>39</v>
       </c>
       <c r="S2" s="2">
-        <v>45436.406469907408</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T2">
         <v>270.69499999999999</v>
@@ -2797,7 +2797,7 @@
         <v>77</v>
       </c>
       <c r="S7" s="2">
-        <v>45429.400659722225</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T7">
         <v>271.0675</v>
@@ -2957,7 +2957,7 @@
         <v>89</v>
       </c>
       <c r="S9" s="2">
-        <v>45426.441828703704</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T9">
         <v>269.82249999999999</v>
@@ -3037,7 +3037,7 @@
         <v>96</v>
       </c>
       <c r="S10" s="2">
-        <v>45425.344942129632</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T10">
         <v>269.48500000000001</v>
@@ -3120,7 +3120,7 @@
         <v>101</v>
       </c>
       <c r="S11" s="2">
-        <v>45425.34165509259</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T11">
         <v>538.85500000000002</v>
@@ -3200,7 +3200,7 @@
         <v>107</v>
       </c>
       <c r="S12" s="2">
-        <v>45425.338796296295</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T12">
         <v>269.39</v>
@@ -3283,7 +3283,7 @@
         <v>112</v>
       </c>
       <c r="S13" s="2">
-        <v>45422.373518518521</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T13">
         <v>269.53500000000003</v>
@@ -3363,7 +3363,7 @@
         <v>117</v>
       </c>
       <c r="S14" s="2">
-        <v>45421.48641203704</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T14">
         <v>268.17250000000001</v>
@@ -4824,7 +4824,7 @@
         <v>211</v>
       </c>
       <c r="S32" s="2">
-        <v>45404.405324074076</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T32">
         <v>266.32</v>
@@ -4907,7 +4907,7 @@
         <v>216</v>
       </c>
       <c r="S33" s="2">
-        <v>45401.687523148146</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T33">
         <v>266.00749999999999</v>
@@ -4987,7 +4987,7 @@
         <v>222</v>
       </c>
       <c r="S34" s="2">
-        <v>45400.728148148148</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T34">
         <v>266.14999999999998</v>
@@ -5067,7 +5067,7 @@
         <v>227</v>
       </c>
       <c r="S35" s="2">
-        <v>45400.711365740739</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T35">
         <v>266.36250000000001</v>
@@ -5147,7 +5147,7 @@
         <v>232</v>
       </c>
       <c r="S36" s="2">
-        <v>45400.290567129632</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T36">
         <v>267.15249999999997</v>
@@ -5227,7 +5227,7 @@
         <v>237</v>
       </c>
       <c r="S37" s="2">
-        <v>45399.736585648148</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T37">
         <v>266.57749999999999</v>
@@ -5307,7 +5307,7 @@
         <v>243</v>
       </c>
       <c r="S38" s="2">
-        <v>45399.435300925928</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T38">
         <v>266.05500000000001</v>
@@ -5390,7 +5390,7 @@
         <v>248</v>
       </c>
       <c r="S39" s="2">
-        <v>45399.430428240739</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T39">
         <v>266.07749999999999</v>
@@ -6332,7 +6332,7 @@
         <v>310</v>
       </c>
       <c r="S51" s="2">
-        <v>45376.481585648151</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T51">
         <v>270.57</v>
@@ -6412,7 +6412,7 @@
         <v>315</v>
       </c>
       <c r="S52" s="2">
-        <v>45373.731886574074</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T52">
         <v>270.14499999999998</v>
@@ -6489,7 +6489,7 @@
         <v>320</v>
       </c>
       <c r="S53" s="2">
-        <v>45373.684398148151</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T53">
         <v>270.21749999999997</v>
@@ -8523,7 +8523,7 @@
         <v>69</v>
       </c>
       <c r="S80" s="2">
-        <v>45363.334456018521</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T80">
         <v>1.0931999999999999</v>
@@ -8600,7 +8600,7 @@
         <v>449</v>
       </c>
       <c r="S81" s="2">
-        <v>45362.606388888889</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T81">
         <v>273.01499999999999</v>
@@ -8674,7 +8674,7 @@
         <v>266</v>
       </c>
       <c r="S82" s="2">
-        <v>45362.542685185188</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T82">
         <v>1.093</v>
@@ -8754,7 +8754,7 @@
         <v>458</v>
       </c>
       <c r="S83" s="2">
-        <v>45359.621249999997</v>
+        <v>45441.406469907408</v>
       </c>
       <c r="T83">
         <v>274.01249999999999</v>

--- a/Monetary Transactions_conv.xlsx
+++ b/Monetary Transactions_conv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Desktop\promo_may_24-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE3B7D-00BE-451C-A14B-9EA708587F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D300DB67-13D9-4BF1-8940-5F460C53A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetName1" sheetId="1" r:id="rId1"/>
@@ -2220,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G103" workbookViewId="0">
-      <selection activeCell="R120" sqref="R120"/>
+    <sheetView tabSelected="1" topLeftCell="I61" workbookViewId="0">
+      <selection activeCell="S75" sqref="S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2391,7 @@
         <v>39</v>
       </c>
       <c r="S2" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T2">
         <v>270.69499999999999</v>
@@ -2717,7 +2717,7 @@
         <v>71</v>
       </c>
       <c r="S6" s="2">
-        <v>45429.566990740743</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T6">
         <v>271.3125</v>
@@ -2797,7 +2797,7 @@
         <v>77</v>
       </c>
       <c r="S7" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T7">
         <v>271.0675</v>
@@ -2877,7 +2877,7 @@
         <v>83</v>
       </c>
       <c r="S8" s="2">
-        <v>45427.578703703701</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T8">
         <v>1083.69</v>
@@ -2957,7 +2957,7 @@
         <v>89</v>
       </c>
       <c r="S9" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T9">
         <v>269.82249999999999</v>
@@ -3037,7 +3037,7 @@
         <v>96</v>
       </c>
       <c r="S10" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T10">
         <v>269.48500000000001</v>
@@ -3120,7 +3120,7 @@
         <v>101</v>
       </c>
       <c r="S11" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T11">
         <v>538.85500000000002</v>
@@ -5147,7 +5147,7 @@
         <v>232</v>
       </c>
       <c r="S36" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T36">
         <v>267.15249999999997</v>
@@ -5227,7 +5227,7 @@
         <v>237</v>
       </c>
       <c r="S37" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T37">
         <v>266.57749999999999</v>
@@ -5307,7 +5307,7 @@
         <v>243</v>
       </c>
       <c r="S38" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T38">
         <v>266.05500000000001</v>
@@ -5390,7 +5390,7 @@
         <v>248</v>
       </c>
       <c r="S39" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T39">
         <v>266.07749999999999</v>
@@ -6942,7 +6942,7 @@
         <v>48</v>
       </c>
       <c r="S59" s="2">
-        <v>45371.569386574076</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T59">
         <v>1.0839000000000001</v>
@@ -7022,7 +7022,7 @@
         <v>353</v>
       </c>
       <c r="S60" s="2">
-        <v>45370.764004629629</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T60">
         <v>271.58</v>
@@ -7093,7 +7093,7 @@
         <v>48</v>
       </c>
       <c r="S61" s="2">
-        <v>45370.680266203701</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T61">
         <v>1.0860000000000001</v>
@@ -7173,7 +7173,7 @@
         <v>362</v>
       </c>
       <c r="S62" s="2">
-        <v>45370.609525462962</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T62">
         <v>271.50749999999999</v>
@@ -7244,7 +7244,7 @@
         <v>48</v>
       </c>
       <c r="S63" s="2">
-        <v>45369.666446759256</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T63">
         <v>1.0885</v>
@@ -7324,7 +7324,7 @@
         <v>370</v>
       </c>
       <c r="S64" s="2">
-        <v>45369.641759259262</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T64">
         <v>272.1925</v>
@@ -8600,7 +8600,7 @@
         <v>449</v>
       </c>
       <c r="S81" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T81">
         <v>273.01499999999999</v>
@@ -8674,7 +8674,7 @@
         <v>266</v>
       </c>
       <c r="S82" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T82">
         <v>1.093</v>
@@ -8754,7 +8754,7 @@
         <v>458</v>
       </c>
       <c r="S83" s="2">
-        <v>45441.406469907408</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T83">
         <v>274.01249999999999</v>
@@ -8825,7 +8825,7 @@
         <v>266</v>
       </c>
       <c r="S84" s="2">
-        <v>45359.503333333334</v>
+        <v>45442.406469907408</v>
       </c>
       <c r="T84">
         <v>1.0932999999999999</v>
